--- a/Assignments/Assignment5/HashFunctionAnalysis.xlsx
+++ b/Assignments/Assignment5/HashFunctionAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CurtisLui/Documents/Documents/SFU /3rd Year/SPRING 2019/CMPT 225/cmpt225/Assignments/Assignment5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385226BB-D5D8-AC44-A460-408E2FD85CAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB1509D-23D3-6643-AD2C-2A836230D1A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{F812BE71-833B-D841-AB9F-F3832929AB92}"/>
   </bookViews>
